--- a/Banco de Dados/Cadastro_Barcos_PMAP_2020-03-25.xlsx
+++ b/Banco de Dados/Cadastro_Barcos_PMAP_2020-03-25.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Plan1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AE$310</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AE$368</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -6581,10 +6581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D334" sqref="D334"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6706,7 +6707,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -6768,7 +6769,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -6833,7 +6834,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -6886,7 +6887,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -6954,7 +6955,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -7013,7 +7014,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>199</v>
       </c>
@@ -7066,7 +7067,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>213</v>
       </c>
@@ -7125,7 +7126,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>225</v>
       </c>
@@ -7193,7 +7194,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>230</v>
       </c>
@@ -7252,7 +7253,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>263</v>
       </c>
@@ -7317,7 +7318,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -7373,7 +7374,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>160</v>
       </c>
@@ -7429,7 +7430,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>233</v>
       </c>
@@ -7506,7 +7507,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>235</v>
       </c>
@@ -7562,7 +7563,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>236</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -7719,7 +7720,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -7772,7 +7773,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>186</v>
       </c>
@@ -7837,7 +7838,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>212</v>
       </c>
@@ -7902,7 +7903,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>214</v>
       </c>
@@ -7961,7 +7962,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>215</v>
       </c>
@@ -8026,7 +8027,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>216</v>
       </c>
@@ -8091,7 +8092,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>219</v>
       </c>
@@ -8159,7 +8160,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>221</v>
       </c>
@@ -8227,7 +8228,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>224</v>
       </c>
@@ -8292,7 +8293,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>228</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>234</v>
       </c>
@@ -8419,7 +8420,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>237</v>
       </c>
@@ -8484,7 +8485,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>238</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>203</v>
       </c>
@@ -8596,7 +8597,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -8655,7 +8656,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1751</v>
       </c>
@@ -8708,7 +8709,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>268</v>
       </c>
@@ -8791,7 +8792,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>151</v>
       </c>
@@ -8856,7 +8857,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>241</v>
       </c>
@@ -8921,7 +8922,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>252</v>
       </c>
@@ -8977,7 +8978,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>266</v>
       </c>
@@ -9030,7 +9031,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -9098,7 +9099,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -9160,7 +9161,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -9228,7 +9229,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>269</v>
       </c>
@@ -9293,7 +9294,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>37</v>
       </c>
@@ -9349,7 +9350,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -9405,7 +9406,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -9458,7 +9459,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -9523,7 +9524,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -9576,7 +9577,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>70</v>
       </c>
@@ -9632,7 +9633,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -9685,7 +9686,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>79</v>
       </c>
@@ -9738,7 +9739,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>105</v>
       </c>
@@ -9797,7 +9798,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -9865,7 +9866,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>197</v>
       </c>
@@ -9942,7 +9943,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>211</v>
       </c>
@@ -9995,7 +9996,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>211</v>
       </c>
@@ -10048,7 +10049,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>211</v>
       </c>
@@ -10101,7 +10102,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -10154,7 +10155,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>211</v>
       </c>
@@ -10207,7 +10208,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>211</v>
       </c>
@@ -10260,7 +10261,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>211</v>
       </c>
@@ -10313,7 +10314,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>211</v>
       </c>
@@ -10366,7 +10367,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>211</v>
       </c>
@@ -10419,7 +10420,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>245</v>
       </c>
@@ -10472,7 +10473,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>165</v>
       </c>
@@ -10558,7 +10559,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>185</v>
       </c>
@@ -10611,7 +10612,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>121</v>
       </c>
@@ -10664,7 +10665,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>89</v>
       </c>
@@ -10729,7 +10730,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -10809,7 +10810,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -10862,7 +10863,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -10915,7 +10916,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -10968,7 +10969,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -11021,7 +11022,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>104</v>
       </c>
@@ -11074,7 +11075,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>117</v>
       </c>
@@ -11133,7 +11134,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>118</v>
       </c>
@@ -11192,7 +11193,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>120</v>
       </c>
@@ -11254,7 +11255,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>134</v>
       </c>
@@ -11310,7 +11311,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>149</v>
       </c>
@@ -11363,7 +11364,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>152</v>
       </c>
@@ -11416,7 +11417,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>154</v>
       </c>
@@ -11490,7 +11491,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>166</v>
       </c>
@@ -11573,7 +11574,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>188</v>
       </c>
@@ -11635,7 +11636,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>204</v>
       </c>
@@ -11715,7 +11716,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>205</v>
       </c>
@@ -11768,7 +11769,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>206</v>
       </c>
@@ -11836,7 +11837,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>208</v>
       </c>
@@ -11895,7 +11896,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>209</v>
       </c>
@@ -11954,7 +11955,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>243</v>
       </c>
@@ -12007,7 +12008,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -12093,7 +12094,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>53</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>158</v>
       </c>
@@ -12229,7 +12230,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>249</v>
       </c>
@@ -12297,7 +12298,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>251</v>
       </c>
@@ -12377,7 +12378,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -12433,7 +12434,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>270</v>
       </c>
@@ -12486,7 +12487,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1745</v>
       </c>
@@ -12533,7 +12534,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>33</v>
       </c>
@@ -12592,7 +12593,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>35</v>
       </c>
@@ -12663,7 +12664,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>39</v>
       </c>
@@ -12713,7 +12714,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>46</v>
       </c>
@@ -12763,7 +12764,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>55</v>
       </c>
@@ -12819,7 +12820,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>59</v>
       </c>
@@ -12869,7 +12870,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>69</v>
       </c>
@@ -12919,7 +12920,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>81</v>
       </c>
@@ -12993,7 +12994,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>87</v>
       </c>
@@ -13046,7 +13047,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>88</v>
       </c>
@@ -13108,7 +13109,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -13179,7 +13180,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>126</v>
       </c>
@@ -13232,7 +13233,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>131</v>
       </c>
@@ -13285,7 +13286,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>133</v>
       </c>
@@ -13338,7 +13339,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>140</v>
       </c>
@@ -13394,7 +13395,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>144</v>
       </c>
@@ -13444,7 +13445,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>147</v>
       </c>
@@ -13497,7 +13498,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>153</v>
       </c>
@@ -13550,7 +13551,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>162</v>
       </c>
@@ -13600,7 +13601,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>164</v>
       </c>
@@ -13653,7 +13654,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>168</v>
       </c>
@@ -13706,7 +13707,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>176</v>
       </c>
@@ -13759,7 +13760,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>178</v>
       </c>
@@ -13821,7 +13822,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>180</v>
       </c>
@@ -13874,7 +13875,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>182</v>
       </c>
@@ -13927,7 +13928,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>183</v>
       </c>
@@ -13980,7 +13981,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>194</v>
       </c>
@@ -14033,7 +14034,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>202</v>
       </c>
@@ -14086,7 +14087,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>210</v>
       </c>
@@ -14136,7 +14137,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>211</v>
       </c>
@@ -14186,7 +14187,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>211</v>
       </c>
@@ -14239,7 +14240,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>211</v>
       </c>
@@ -14289,7 +14290,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>211</v>
       </c>
@@ -14342,7 +14343,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>211</v>
       </c>
@@ -14395,7 +14396,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>211</v>
       </c>
@@ -14448,7 +14449,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>211</v>
       </c>
@@ -14498,7 +14499,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>211</v>
       </c>
@@ -14551,7 +14552,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>211</v>
       </c>
@@ -14604,7 +14605,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>211</v>
       </c>
@@ -14657,7 +14658,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>211</v>
       </c>
@@ -14710,7 +14711,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>211</v>
       </c>
@@ -14760,7 +14761,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>211</v>
       </c>
@@ -14813,7 +14814,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>211</v>
       </c>
@@ -14866,7 +14867,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>211</v>
       </c>
@@ -14916,7 +14917,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>211</v>
       </c>
@@ -14969,7 +14970,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>211</v>
       </c>
@@ -15025,7 +15026,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>211</v>
       </c>
@@ -15078,7 +15079,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>211</v>
       </c>
@@ -15131,7 +15132,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>211</v>
       </c>
@@ -15181,7 +15182,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>211</v>
       </c>
@@ -15234,7 +15235,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>211</v>
       </c>
@@ -15287,7 +15288,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>211</v>
       </c>
@@ -15340,7 +15341,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>211</v>
       </c>
@@ -15393,7 +15394,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>211</v>
       </c>
@@ -15446,7 +15447,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -15499,7 +15500,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>211</v>
       </c>
@@ -15549,7 +15550,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>211</v>
       </c>
@@ -15599,7 +15600,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>211</v>
       </c>
@@ -15649,7 +15650,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>211</v>
       </c>
@@ -15699,7 +15700,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>211</v>
       </c>
@@ -15752,7 +15753,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>223</v>
       </c>
@@ -15808,7 +15809,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>244</v>
       </c>
@@ -15861,7 +15862,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>258</v>
       </c>
@@ -15917,7 +15918,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>260</v>
       </c>
@@ -15967,7 +15968,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>261</v>
       </c>
@@ -16020,7 +16021,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>267</v>
       </c>
@@ -16070,7 +16071,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>211</v>
       </c>
@@ -16120,7 +16121,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>52</v>
       </c>
@@ -16176,7 +16177,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>136</v>
       </c>
@@ -16226,7 +16227,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -16279,7 +16280,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>189</v>
       </c>
@@ -16329,7 +16330,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>217</v>
       </c>
@@ -16379,7 +16380,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>222</v>
       </c>
@@ -16429,7 +16430,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>226</v>
       </c>
@@ -16476,7 +16477,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>227</v>
       </c>
@@ -16526,7 +16527,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>231</v>
       </c>
@@ -16576,7 +16577,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>257</v>
       </c>
@@ -16632,7 +16633,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>58</v>
       </c>
@@ -16685,7 +16686,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>136</v>
       </c>
@@ -16738,7 +16739,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>137</v>
       </c>
@@ -16791,7 +16792,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>163</v>
       </c>
@@ -16844,7 +16845,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>174</v>
       </c>
@@ -16897,7 +16898,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>175</v>
       </c>
@@ -16950,7 +16951,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>198</v>
       </c>
@@ -17003,7 +17004,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>211</v>
       </c>
@@ -17056,7 +17057,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>211</v>
       </c>
@@ -17109,7 +17110,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>211</v>
       </c>
@@ -17162,7 +17163,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>211</v>
       </c>
@@ -17215,7 +17216,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>211</v>
       </c>
@@ -17268,7 +17269,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>211</v>
       </c>
@@ -17321,7 +17322,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>211</v>
       </c>
@@ -17374,7 +17375,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>211</v>
       </c>
@@ -17427,7 +17428,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>211</v>
       </c>
@@ -17480,7 +17481,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>211</v>
       </c>
@@ -17533,7 +17534,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>229</v>
       </c>
@@ -17595,7 +17596,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>246</v>
       </c>
@@ -17648,7 +17649,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>253</v>
       </c>
@@ -17701,7 +17702,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="194" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>71</v>
       </c>
@@ -17763,7 +17764,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>41</v>
       </c>
@@ -17819,7 +17820,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>57</v>
       </c>
@@ -17887,7 +17888,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>71</v>
       </c>
@@ -17946,7 +17947,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>86</v>
       </c>
@@ -18008,7 +18009,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>124</v>
       </c>
@@ -18070,7 +18071,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>193</v>
       </c>
@@ -18126,7 +18127,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>211</v>
       </c>
@@ -18176,7 +18177,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="202" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>242</v>
       </c>
@@ -18250,7 +18251,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>40</v>
       </c>
@@ -18303,7 +18304,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>51</v>
       </c>
@@ -18377,7 +18378,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="205" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>56</v>
       </c>
@@ -18424,7 +18425,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="206" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>68</v>
       </c>
@@ -18495,7 +18496,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>73</v>
       </c>
@@ -18542,7 +18543,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="208" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>84</v>
       </c>
@@ -18592,7 +18593,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>110</v>
       </c>
@@ -18657,7 +18658,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="210" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>128</v>
       </c>
@@ -18713,7 +18714,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>150</v>
       </c>
@@ -18790,7 +18791,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>155</v>
       </c>
@@ -18837,7 +18838,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>157</v>
       </c>
@@ -18884,7 +18885,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>173</v>
       </c>
@@ -18955,7 +18956,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>1749</v>
       </c>
@@ -19029,7 +19030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="216" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>239</v>
       </c>
@@ -19079,7 +19080,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>250</v>
       </c>
@@ -19159,7 +19160,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>36</v>
       </c>
@@ -19209,7 +19210,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>92</v>
       </c>
@@ -19289,7 +19290,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>48</v>
       </c>
@@ -19342,7 +19343,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>61</v>
       </c>
@@ -19410,7 +19411,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>65</v>
       </c>
@@ -19487,7 +19488,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>91</v>
       </c>
@@ -19543,7 +19544,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>114</v>
       </c>
@@ -19623,7 +19624,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>196</v>
       </c>
@@ -19703,7 +19704,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>211</v>
       </c>
@@ -19756,7 +19757,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>211</v>
       </c>
@@ -19809,7 +19810,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="228" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>259</v>
       </c>
@@ -19865,7 +19866,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="229" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>262</v>
       </c>
@@ -19918,7 +19919,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="230" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>54</v>
       </c>
@@ -19971,7 +19972,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="231" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>28</v>
       </c>
@@ -20024,7 +20025,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="232" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>63</v>
       </c>
@@ -20080,7 +20081,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="233" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>94</v>
       </c>
@@ -20139,7 +20140,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="234" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>99</v>
       </c>
@@ -20198,7 +20199,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="235" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>103</v>
       </c>
@@ -20251,7 +20252,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="236" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>108</v>
       </c>
@@ -20304,7 +20305,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="237" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>112</v>
       </c>
@@ -20357,7 +20358,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="238" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>113</v>
       </c>
@@ -20413,7 +20414,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="239" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>122</v>
       </c>
@@ -20478,7 +20479,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="240" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>123</v>
       </c>
@@ -20531,7 +20532,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="241" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>129</v>
       </c>
@@ -20584,7 +20585,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="242" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>141</v>
       </c>
@@ -20664,7 +20665,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="243" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>145</v>
       </c>
@@ -20720,7 +20721,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="244" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>167</v>
       </c>
@@ -20782,7 +20783,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="245" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>192</v>
       </c>
@@ -20847,7 +20848,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="246" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>207</v>
       </c>
@@ -20912,7 +20913,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="247" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>256</v>
       </c>
@@ -20965,7 +20966,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>34</v>
       </c>
@@ -21018,7 +21019,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>38</v>
       </c>
@@ -21092,7 +21093,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>43</v>
       </c>
@@ -21157,7 +21158,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>60</v>
       </c>
@@ -21237,7 +21238,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>72</v>
       </c>
@@ -21299,7 +21300,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="253" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>80</v>
       </c>
@@ -21355,7 +21356,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>96</v>
       </c>
@@ -21417,7 +21418,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="255" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>100</v>
       </c>
@@ -21470,7 +21471,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="256" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>109</v>
       </c>
@@ -21523,7 +21524,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="257" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>115</v>
       </c>
@@ -21576,7 +21577,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="258" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>119</v>
       </c>
@@ -21644,7 +21645,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="259" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>127</v>
       </c>
@@ -21721,7 +21722,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="260" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>130</v>
       </c>
@@ -21774,7 +21775,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="261" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>138</v>
       </c>
@@ -21848,7 +21849,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="262" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>146</v>
       </c>
@@ -21913,7 +21914,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="263" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>166</v>
       </c>
@@ -21975,7 +21976,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="264" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>171</v>
       </c>
@@ -22028,7 +22029,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="265" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>172</v>
       </c>
@@ -22093,7 +22094,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="266" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>177</v>
       </c>
@@ -22146,7 +22147,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="267" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>184</v>
       </c>
@@ -22199,7 +22200,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="268" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>187</v>
       </c>
@@ -22264,7 +22265,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="269" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>191</v>
       </c>
@@ -22326,7 +22327,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="270" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>201</v>
       </c>
@@ -22400,7 +22401,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="271" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>211</v>
       </c>
@@ -22453,7 +22454,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="272" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>211</v>
       </c>
@@ -22506,7 +22507,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="273" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>211</v>
       </c>
@@ -22559,7 +22560,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="274" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>211</v>
       </c>
@@ -22612,7 +22613,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="275" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>251</v>
       </c>
@@ -22665,7 +22666,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="276" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>248</v>
       </c>
@@ -22721,7 +22722,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="277" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>44</v>
       </c>
@@ -22798,7 +22799,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="278" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>95</v>
       </c>
@@ -22851,7 +22852,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="279" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>98</v>
       </c>
@@ -22931,7 +22932,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="280" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>107</v>
       </c>
@@ -23002,7 +23003,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="281" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>125</v>
       </c>
@@ -23058,7 +23059,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="282" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>132</v>
       </c>
@@ -23117,7 +23118,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="283" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>139</v>
       </c>
@@ -23194,7 +23195,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="284" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>143</v>
       </c>
@@ -23250,7 +23251,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="285" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>190</v>
       </c>
@@ -23315,7 +23316,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="286" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>195</v>
       </c>
@@ -23377,7 +23378,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="287" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>211</v>
       </c>
@@ -23433,7 +23434,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="288" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>254</v>
       </c>
@@ -23501,7 +23502,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="289" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>256</v>
       </c>
@@ -24856,7 +24857,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="311" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>1753</v>
       </c>
@@ -24936,7 +24937,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="312" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>52</v>
       </c>
@@ -24986,7 +24987,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="313" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>1761</v>
       </c>
@@ -25039,7 +25040,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="314" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>1764</v>
       </c>
@@ -25092,7 +25093,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="315" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>1768</v>
       </c>
@@ -25175,7 +25176,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="316" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>1772</v>
       </c>
@@ -25317,7 +25318,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="318" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>47</v>
       </c>
@@ -25429,7 +25430,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="320" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1782</v>
       </c>
@@ -25547,7 +25548,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="322" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1788</v>
       </c>
@@ -25627,7 +25628,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="323" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>73</v>
       </c>
@@ -25680,7 +25681,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="324" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1793</v>
       </c>
@@ -25742,7 +25743,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="325" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>87</v>
       </c>
@@ -25810,7 +25811,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="326" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1799</v>
       </c>
@@ -25869,7 +25870,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="327" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1803</v>
       </c>
@@ -25946,7 +25947,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="328" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1806</v>
       </c>
@@ -26008,7 +26009,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="329" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1808</v>
       </c>
@@ -26079,7 +26080,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="330" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1811</v>
       </c>
@@ -26132,7 +26133,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="331" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1815</v>
       </c>
@@ -26200,7 +26201,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="332" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1818</v>
       </c>
@@ -26277,7 +26278,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="333" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1822</v>
       </c>
@@ -26330,7 +26331,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="334" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1825</v>
       </c>
@@ -26413,7 +26414,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="335" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1828</v>
       </c>
@@ -26481,7 +26482,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="336" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1833</v>
       </c>
@@ -26534,7 +26535,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="337" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1835</v>
       </c>
@@ -26611,7 +26612,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="338" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1838</v>
       </c>
@@ -26664,7 +26665,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="339" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>140</v>
       </c>
@@ -26738,7 +26739,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="340" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1844</v>
       </c>
@@ -26797,7 +26798,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="341" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1847</v>
       </c>
@@ -26850,7 +26851,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="342" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1849</v>
       </c>
@@ -26924,7 +26925,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="343" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1853</v>
       </c>
@@ -26983,7 +26984,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="344" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1856</v>
       </c>
@@ -27042,7 +27043,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="345" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1859</v>
       </c>
@@ -27116,7 +27117,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="346" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1862</v>
       </c>
@@ -27184,7 +27185,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="347" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1865</v>
       </c>
@@ -27243,7 +27244,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="348" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1868</v>
       </c>
@@ -27314,7 +27315,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="349" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1871</v>
       </c>
@@ -27376,7 +27377,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="350" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1875</v>
       </c>
@@ -27429,7 +27430,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="351" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1877</v>
       </c>
@@ -27506,7 +27507,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="352" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>728</v>
       </c>
@@ -27624,7 +27625,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="354" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1886</v>
       </c>
@@ -27683,7 +27684,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="355" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1889</v>
       </c>
@@ -27736,7 +27737,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="356" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>203</v>
       </c>
@@ -27819,7 +27820,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="357" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1894</v>
       </c>
@@ -27896,7 +27897,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="358" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1898</v>
       </c>
@@ -28020,7 +28021,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="360" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1904</v>
       </c>
@@ -28097,7 +28098,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="361" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1908</v>
       </c>
@@ -28174,7 +28175,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="362" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>249</v>
       </c>
@@ -28236,7 +28237,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="363" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1914</v>
       </c>
@@ -28313,7 +28314,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="364" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1916</v>
       </c>
@@ -28393,7 +28394,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="365" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1920</v>
       </c>
@@ -28582,7 +28583,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="368" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1927</v>
       </c>
@@ -28660,7 +28661,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AE310"/>
+  <autoFilter ref="A1:AE368">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Pontal do Sul"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:AD311">
     <sortCondition ref="C2:C311"/>
     <sortCondition ref="B2:B311"/>
